--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H2">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.656454333333333</v>
+        <v>28.22141</v>
       </c>
       <c r="N2">
-        <v>4.969363</v>
+        <v>84.66423</v>
       </c>
       <c r="O2">
-        <v>0.0006990759915034363</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="P2">
-        <v>0.0006990759915034362</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="Q2">
-        <v>171.3229940582495</v>
+        <v>3331.105625298453</v>
       </c>
       <c r="R2">
-        <v>1541.906946524245</v>
+        <v>29979.95062768608</v>
       </c>
       <c r="S2">
-        <v>0.0001737574548487271</v>
+        <v>0.002055727847125474</v>
       </c>
       <c r="T2">
-        <v>0.000173757454848727</v>
+        <v>0.002055727847125474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H3">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.798158</v>
       </c>
       <c r="O3">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918205</v>
       </c>
       <c r="P3">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918206</v>
       </c>
       <c r="Q3">
-        <v>682.5582484914634</v>
+        <v>778.9565378950186</v>
       </c>
       <c r="R3">
-        <v>6143.024236423171</v>
+        <v>7010.608841055167</v>
       </c>
       <c r="S3">
-        <v>0.0006922572460037563</v>
+        <v>0.0004807180638433725</v>
       </c>
       <c r="T3">
-        <v>0.0006922572460037562</v>
+        <v>0.0004807180638433725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H4">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.65875266666667</v>
+        <v>1.757996666666666</v>
       </c>
       <c r="N4">
-        <v>40.976258</v>
+        <v>5.27399</v>
       </c>
       <c r="O4">
-        <v>0.005764424573018838</v>
+        <v>0.000480325348578274</v>
       </c>
       <c r="P4">
-        <v>0.005764424573018838</v>
+        <v>0.0004803253485782741</v>
       </c>
       <c r="Q4">
-        <v>1412.691165017186</v>
+        <v>207.5046068070044</v>
       </c>
       <c r="R4">
-        <v>12714.22048515467</v>
+        <v>1867.54146126304</v>
       </c>
       <c r="S4">
-        <v>0.001432765185257103</v>
+        <v>0.0001280574819904613</v>
       </c>
       <c r="T4">
-        <v>0.001432765185257102</v>
+        <v>0.0001280574819904613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H5">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I5">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J5">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2347.576497333333</v>
+        <v>3623.433471666667</v>
       </c>
       <c r="N5">
-        <v>7042.729492</v>
+        <v>10870.300415</v>
       </c>
       <c r="O5">
-        <v>0.9907513503260664</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="P5">
-        <v>0.9907513503260663</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="Q5">
-        <v>242804.0581683758</v>
+        <v>427690.8779668888</v>
       </c>
       <c r="R5">
-        <v>2185236.523515382</v>
+        <v>3849217.901701999</v>
       </c>
       <c r="S5">
-        <v>0.2462542486266325</v>
+        <v>0.2639412095253815</v>
       </c>
       <c r="T5">
-        <v>0.2462542486266325</v>
+        <v>0.2639412095253815</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J6">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.656454333333333</v>
+        <v>28.22141</v>
       </c>
       <c r="N6">
-        <v>4.969363</v>
+        <v>84.66423</v>
       </c>
       <c r="O6">
-        <v>0.0006990759915034363</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="P6">
-        <v>0.0006990759915034362</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="Q6">
-        <v>358.010367892219</v>
+        <v>6099.508554639991</v>
       </c>
       <c r="R6">
-        <v>3222.093311029971</v>
+        <v>54895.57699175991</v>
       </c>
       <c r="S6">
-        <v>0.0003630976138162643</v>
+        <v>0.003764194534789044</v>
       </c>
       <c r="T6">
-        <v>0.0003630976138162642</v>
+        <v>0.003764194534789044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J7">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.798158</v>
       </c>
       <c r="O7">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918205</v>
       </c>
       <c r="P7">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918206</v>
       </c>
       <c r="Q7">
         <v>1426.328853249054</v>
@@ -883,10 +883,10 @@
         <v>12836.95967924149</v>
       </c>
       <c r="S7">
-        <v>0.001446596661937835</v>
+        <v>0.0008802314524385325</v>
       </c>
       <c r="T7">
-        <v>0.001446596661937834</v>
+        <v>0.0008802314524385327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>648.391617</v>
       </c>
       <c r="I8">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J8">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.65875266666667</v>
+        <v>1.757996666666666</v>
       </c>
       <c r="N8">
-        <v>40.976258</v>
+        <v>5.27399</v>
       </c>
       <c r="O8">
-        <v>0.005764424573018838</v>
+        <v>0.000480325348578274</v>
       </c>
       <c r="P8">
-        <v>0.005764424573018838</v>
+        <v>0.0004803253485782741</v>
       </c>
       <c r="Q8">
-        <v>2952.073575914354</v>
+        <v>379.9567671268699</v>
       </c>
       <c r="R8">
-        <v>26568.66218322919</v>
+        <v>3419.610904141829</v>
       </c>
       <c r="S8">
-        <v>0.002994021870191333</v>
+        <v>0.0002344830199782371</v>
       </c>
       <c r="T8">
-        <v>0.002994021870191332</v>
+        <v>0.0002344830199782372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>648.391617</v>
       </c>
       <c r="I9">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J9">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2347.576497333333</v>
+        <v>3623.433471666667</v>
       </c>
       <c r="N9">
-        <v>7042.729492</v>
+        <v>10870.300415</v>
       </c>
       <c r="O9">
-        <v>0.9907513503260664</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="P9">
-        <v>0.9907513503260663</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="Q9">
-        <v>507382.9737123854</v>
+        <v>783134.6292619579</v>
       </c>
       <c r="R9">
-        <v>4566446.763411469</v>
+        <v>7048211.663357621</v>
       </c>
       <c r="S9">
-        <v>0.5145927704010819</v>
+        <v>0.4832964926706127</v>
       </c>
       <c r="T9">
-        <v>0.5145927704010818</v>
+        <v>0.4832964926706128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H10">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I10">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J10">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.656454333333333</v>
+        <v>28.22141</v>
       </c>
       <c r="N10">
-        <v>4.969363</v>
+        <v>84.66423</v>
       </c>
       <c r="O10">
-        <v>0.0006990759915034363</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="P10">
-        <v>0.0006990759915034362</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="Q10">
-        <v>41.33383295762466</v>
+        <v>1294.69816123732</v>
       </c>
       <c r="R10">
-        <v>372.0044966186219</v>
+        <v>11652.28345113588</v>
       </c>
       <c r="S10">
-        <v>4.192117732554573E-05</v>
+        <v>0.0007989980994491107</v>
       </c>
       <c r="T10">
-        <v>4.192117732554572E-05</v>
+        <v>0.0007989980994491108</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H11">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I11">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J11">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.798158</v>
       </c>
       <c r="O11">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918205</v>
       </c>
       <c r="P11">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918206</v>
       </c>
       <c r="Q11">
-        <v>164.675785536428</v>
+        <v>302.756415058472</v>
       </c>
       <c r="R11">
-        <v>1482.082069827852</v>
+        <v>2724.807735526248</v>
       </c>
       <c r="S11">
-        <v>0.0001670157910052399</v>
+        <v>0.0001868403056945442</v>
       </c>
       <c r="T11">
-        <v>0.0001670157910052398</v>
+        <v>0.0001868403056945443</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H12">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I12">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J12">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.65875266666667</v>
+        <v>1.757996666666666</v>
       </c>
       <c r="N12">
-        <v>40.976258</v>
+        <v>5.27399</v>
       </c>
       <c r="O12">
-        <v>0.005764424573018838</v>
+        <v>0.000480325348578274</v>
       </c>
       <c r="P12">
-        <v>0.005764424573018838</v>
+        <v>0.0004803253485782741</v>
       </c>
       <c r="Q12">
-        <v>340.8295597243613</v>
+        <v>80.65064969449332</v>
       </c>
       <c r="R12">
-        <v>3067.466037519252</v>
+        <v>725.85584725044</v>
       </c>
       <c r="S12">
-        <v>0.0003456726702708801</v>
+        <v>4.977199918446803E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003456726702708801</v>
+        <v>4.977199918446804E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H13">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I13">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J13">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2347.576497333333</v>
+        <v>3623.433471666667</v>
       </c>
       <c r="N13">
-        <v>7042.729492</v>
+        <v>10870.300415</v>
       </c>
       <c r="O13">
-        <v>0.9907513503260664</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="P13">
-        <v>0.9907513503260663</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="Q13">
-        <v>58579.54115810514</v>
+        <v>166230.2717381092</v>
       </c>
       <c r="R13">
-        <v>527215.8704229462</v>
+        <v>1496072.445642983</v>
       </c>
       <c r="S13">
-        <v>0.05941194311825935</v>
+        <v>0.1025858189701351</v>
       </c>
       <c r="T13">
-        <v>0.05941194311825933</v>
+        <v>0.1025858189701351</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H14">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I14">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J14">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.656454333333333</v>
+        <v>28.22141</v>
       </c>
       <c r="N14">
-        <v>4.969363</v>
+        <v>84.66423</v>
       </c>
       <c r="O14">
-        <v>0.0006990759915034363</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="P14">
-        <v>0.0006990759915034362</v>
+        <v>0.007710741921554872</v>
       </c>
       <c r="Q14">
-        <v>118.6142637946583</v>
+        <v>1769.189703942617</v>
       </c>
       <c r="R14">
-        <v>1067.528374151925</v>
+        <v>15922.70733548355</v>
       </c>
       <c r="S14">
-        <v>0.0001202997455128992</v>
+        <v>0.001091821440191243</v>
       </c>
       <c r="T14">
-        <v>0.0001202997455128991</v>
+        <v>0.001091821440191244</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H15">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I15">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J15">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>19.798158</v>
       </c>
       <c r="O15">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918205</v>
       </c>
       <c r="P15">
-        <v>0.002785149109411345</v>
+        <v>0.001803104886918206</v>
       </c>
       <c r="Q15">
-        <v>472.56437810245</v>
+        <v>413.7130555682033</v>
       </c>
       <c r="R15">
-        <v>4253.079402922051</v>
+        <v>3723.41750011383</v>
       </c>
       <c r="S15">
-        <v>0.000479279410464514</v>
+        <v>0.0002553150649417562</v>
       </c>
       <c r="T15">
-        <v>0.000479279410464514</v>
+        <v>0.0002553150649417563</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H16">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I16">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J16">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.65875266666667</v>
+        <v>1.757996666666666</v>
       </c>
       <c r="N16">
-        <v>40.976258</v>
+        <v>5.27399</v>
       </c>
       <c r="O16">
-        <v>0.005764424573018838</v>
+        <v>0.000480325348578274</v>
       </c>
       <c r="P16">
-        <v>0.005764424573018838</v>
+        <v>0.0004803253485782741</v>
       </c>
       <c r="Q16">
-        <v>978.0667412966167</v>
+        <v>110.2081576445722</v>
       </c>
       <c r="R16">
-        <v>8802.60067166955</v>
+        <v>991.8734188011499</v>
       </c>
       <c r="S16">
-        <v>0.0009919648472995228</v>
+        <v>6.801284742510756E-05</v>
       </c>
       <c r="T16">
-        <v>0.0009919648472995228</v>
+        <v>6.801284742510757E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H17">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2347.576497333333</v>
+        <v>3623.433471666667</v>
       </c>
       <c r="N17">
-        <v>7042.729492</v>
+        <v>10870.300415</v>
       </c>
       <c r="O17">
-        <v>0.9907513503260664</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="P17">
-        <v>0.9907513503260663</v>
+        <v>0.9900058278429487</v>
       </c>
       <c r="Q17">
-        <v>168103.6732069096</v>
+        <v>227151.697629343</v>
       </c>
       <c r="R17">
-        <v>1512933.058862187</v>
+        <v>2044365.278664087</v>
       </c>
       <c r="S17">
-        <v>0.1704923881800926</v>
+        <v>0.1401823066768194</v>
       </c>
       <c r="T17">
-        <v>0.1704923881800926</v>
+        <v>0.1401823066768194</v>
       </c>
     </row>
   </sheetData>
